--- a/Roll-to-America.xlsx
+++ b/Roll-to-America.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyu/Desktop/Roll-to-America/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinhengx\Desktop\Roll-to-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BE735A-3235-C04E-9977-0D89B5359B33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7C047-1C19-4528-ACFC-1E730B4E7DBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4280" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1"/>
+    <workbookView xWindow="-4275" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情况" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="202">
   <si>
     <t>College</t>
   </si>
@@ -674,11 +674,51 @@
   <si>
     <t>This is created by Jinheng Xu and Steven Zhang.</t>
   </si>
+  <si>
+    <t>JH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford University</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columbia University</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史蒂文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California, San Diego</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Illinois at Urbana-Champaign</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1038,8 +1078,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,24 +1351,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="60.625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="55.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="55.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1781,23 +1821,23 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4" tooltip="http://www.ece.cornell.edu/"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="G5" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
-    <hyperlink ref="G7" r:id="rId8"/>
-    <hyperlink ref="G8" r:id="rId9"/>
-    <hyperlink ref="G9" r:id="rId10"/>
-    <hyperlink ref="G10" r:id="rId11"/>
-    <hyperlink ref="G11" r:id="rId12"/>
-    <hyperlink ref="H11" r:id="rId13"/>
-    <hyperlink ref="G14" r:id="rId14"/>
-    <hyperlink ref="G12" r:id="rId15"/>
-    <hyperlink ref="G13" r:id="rId16"/>
-    <hyperlink ref="H14" r:id="rId17"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" tooltip="http://www.ece.cornell.edu/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1805,20 +1845,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="56.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2331,26 +2371,11 @@
       <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23">
-        <v>12.4</v>
-      </c>
+      <c r="A23" s="38"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24">
-        <v>12.5</v>
-      </c>
+      <c r="A24" s="38"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
@@ -2365,107 +2390,150 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26">
-        <v>12.15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>12.17</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="A28" s="38"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29">
-        <v>12.12</v>
-      </c>
+      <c r="A29" s="38"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30">
-        <v>12.17</v>
+      <c r="A30" s="38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>188</v>
+      <c r="A31" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>183</v>
       </c>
       <c r="D31">
-        <v>1.1000000000000001</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
         <v>189</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>2.15</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="26" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="26" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{09576333-6048-40E1-9556-6BF490F24CCF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="59.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2591,7 +2659,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="70">
+    <row r="8" spans="1:10" ht="60">
       <c r="A8" s="26" t="s">
         <v>49</v>
       </c>
@@ -2724,40 +2792,40 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B7" r:id="rId2" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6" tooltip="mailto:apps@ece.cmu.edu"/>
-    <hyperlink ref="D2" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9" tooltip="mailto:viterbi.gradadmission@usc.edu"/>
-    <hyperlink ref="D10" r:id="rId10" tooltip="mailto:grad@ee.washington.edu"/>
-    <hyperlink ref="D5" r:id="rId11" tooltip="mailto:ecegrad@jhu.edu"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13" tooltip="mailto:engineering.admissions@dartmouth.edu"/>
-    <hyperlink ref="D12" r:id="rId14" tooltip="mailto:engineering.gradinfo@nyu.edu"/>
-    <hyperlink ref="B13" r:id="rId15"/>
-    <hyperlink ref="B3" r:id="rId16"/>
-    <hyperlink ref="B9" r:id="rId17" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="D9" r:id="rId18" tooltip="mailto:seasgradmit@columbia.edu"/>
+    <hyperlink ref="B10" r:id="rId1" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" tooltip="mailto:apps@ece.cmu.edu" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" tooltip="mailto:viterbi.gradadmission@usc.edu" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D10" r:id="rId10" tooltip="mailto:grad@ee.washington.edu" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D5" r:id="rId11" tooltip="mailto:ecegrad@jhu.edu" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" tooltip="mailto:engineering.admissions@dartmouth.edu" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D12" r:id="rId14" tooltip="mailto:engineering.gradinfo@nyu.edu" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B13" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId17" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="D9" r:id="rId18" tooltip="mailto:seasgradmit@columbia.edu" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2769,7 +2837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75">
+    <row r="2" spans="1:2" ht="71.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="28.5">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75">
+    <row r="4" spans="1:2" ht="71.25">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90">
+    <row r="5" spans="1:2" ht="85.5">
       <c r="A5" s="18" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2869,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120">
+    <row r="6" spans="1:2" ht="114">
       <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
@@ -2809,7 +2877,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="210">
+    <row r="7" spans="1:2" ht="185.25">
       <c r="A7" s="18" t="s">
         <v>39</v>
       </c>
@@ -2817,7 +2885,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75">
+    <row r="8" spans="1:2" ht="71.25">
       <c r="A8" s="18" t="s">
         <v>107</v>
       </c>
@@ -2825,7 +2893,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105">
+    <row r="9" spans="1:2" ht="99.75">
       <c r="A9" s="18" t="s">
         <v>49</v>
       </c>
@@ -2833,7 +2901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="105">
+    <row r="10" spans="1:2" ht="85.5">
       <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
@@ -2841,7 +2909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="135">
+    <row r="11" spans="1:2" ht="128.25">
       <c r="A11" s="18" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2939,7 @@
       </c>
       <c r="B14" s="21"/>
     </row>
-    <row r="15" spans="1:2" ht="75">
+    <row r="15" spans="1:2" ht="71.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2886,20 +2954,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3139,14 +3207,14 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B8" r:id="rId4" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6" tooltip="mailto:qinsiqi747@whu.edu.cn"/>
-    <hyperlink ref="B3" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId1" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" tooltip="mailto:qinsiqi747@whu.edu.cn" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3154,17 +3222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
